--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_30.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_30.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_3</t>
+          <t>model_1_30_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999105071116405</v>
+        <v>0.9357857419005778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8282524680820578</v>
+        <v>0.7446318281739561</v>
       </c>
       <c r="D2" t="n">
-        <v>0.820211626060252</v>
+        <v>0.6582424332719301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998973493371952</v>
+        <v>0.910182834698595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003725165369727907</v>
+        <v>0.2672935636561508</v>
       </c>
       <c r="G2" t="n">
-        <v>1.148476536759947</v>
+        <v>1.707648140863066</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64309258885359</v>
+        <v>1.222446999944017</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006994329990992812</v>
+        <v>0.2129073642148535</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04825125389430365</v>
+        <v>1.408113313798005</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01930068747409767</v>
+        <v>0.5170044135751172</v>
       </c>
       <c r="L2" t="n">
-        <v>1.005727544855006</v>
+        <v>0.9125593081199358</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01960465400820557</v>
+        <v>0.5251467162741179</v>
       </c>
       <c r="N2" t="n">
-        <v>145.7904582531445</v>
+        <v>36.63881547045747</v>
       </c>
       <c r="O2" t="n">
-        <v>287.1256307963609</v>
+        <v>73.60339905868329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_4</t>
+          <t>model_1_30_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999087628203862</v>
+        <v>0.9361285278984712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8282351194235492</v>
+        <v>0.7445675307726056</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8200517819230754</v>
+        <v>0.6618955194709913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998891128109165</v>
+        <v>0.9062747502439125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003797771958860514</v>
+        <v>0.2658667077886192</v>
       </c>
       <c r="G3" t="n">
-        <v>1.148592547319278</v>
+        <v>1.708078097881959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6436643420639752</v>
+        <v>1.209380122428083</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007555543929592263</v>
+        <v>0.2221712945291012</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04853144505918809</v>
+        <v>1.398815181614264</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01948787304674503</v>
+        <v>0.515622640880537</v>
       </c>
       <c r="L3" t="n">
-        <v>1.005839179495283</v>
+        <v>0.9130260805425991</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0197947875665052</v>
+        <v>0.523743182040864</v>
       </c>
       <c r="N3" t="n">
-        <v>145.7518516076323</v>
+        <v>36.64952038866259</v>
       </c>
       <c r="O3" t="n">
-        <v>287.0870241508487</v>
+        <v>73.61410397688842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_2</t>
+          <t>model_1_30_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999164092261035</v>
+        <v>0.9361379418093868</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8282283625068837</v>
+        <v>0.7445641104238131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8208763286717102</v>
+        <v>0.6620307441542742</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999388382445288</v>
+        <v>0.9061097313183002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003479488279532072</v>
+        <v>0.2658275221331116</v>
       </c>
       <c r="G4" t="n">
-        <v>1.148637730852132</v>
+        <v>1.708100969770084</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6407149861540758</v>
+        <v>1.208896431576758</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004167391509274928</v>
+        <v>0.2225624641276938</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04981354938027657</v>
+        <v>1.398450283482633</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01865338650093348</v>
+        <v>0.5155846410950501</v>
       </c>
       <c r="L4" t="n">
-        <v>1.005349809529378</v>
+        <v>0.9130388994851225</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01894715869177762</v>
+        <v>0.5237045837967416</v>
       </c>
       <c r="N4" t="n">
-        <v>145.9269102702272</v>
+        <v>36.649815187089</v>
       </c>
       <c r="O4" t="n">
-        <v>287.2620828134436</v>
+        <v>73.61439877531483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_1</t>
+          <t>model_1_30_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999186845964659</v>
+        <v>0.936146911019791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8282110016168991</v>
+        <v>0.7445581024455696</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8213740594871335</v>
+        <v>0.6621634142548355</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999689273406732</v>
+        <v>0.9059458084884761</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003384775380742896</v>
+        <v>0.2657901875553549</v>
       </c>
       <c r="G5" t="n">
-        <v>1.1487538232034</v>
+        <v>1.708141145148262</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6389346318873977</v>
+        <v>1.208421878319705</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002117204381252442</v>
+        <v>0.2229510354827946</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04759761974962095</v>
+        <v>1.398087760933104</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01839775905033789</v>
+        <v>0.5155484337628763</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00520418582618</v>
+        <v>0.9130511128780132</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01868750536436885</v>
+        <v>0.5236678062352801</v>
       </c>
       <c r="N5" t="n">
-        <v>145.9821056501072</v>
+        <v>36.65009610006189</v>
       </c>
       <c r="O5" t="n">
-        <v>287.3172781933236</v>
+        <v>73.61467968828772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_0</t>
+          <t>model_1_30_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999180176700184</v>
+        <v>0.9361636680913106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8281854658489084</v>
+        <v>0.7445456206261922</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8214276828822829</v>
+        <v>0.6624225653722986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999704241496142</v>
+        <v>0.9056213168451158</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003412536372170281</v>
+        <v>0.2657204357977938</v>
       </c>
       <c r="G6" t="n">
-        <v>1.148924581001534</v>
+        <v>1.708224611131913</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6387428241122115</v>
+        <v>1.207494909798984</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000201521599286275</v>
+        <v>0.2237202276552012</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04734781973403955</v>
+        <v>1.397372420294399</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01847305164874034</v>
+        <v>0.5154807812108941</v>
       </c>
       <c r="L6" t="n">
-        <v>1.005246869118821</v>
+        <v>0.9130739310179549</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01876398374593116</v>
+        <v>0.523599088223232</v>
       </c>
       <c r="N6" t="n">
-        <v>145.9657691060209</v>
+        <v>36.65062103224498</v>
       </c>
       <c r="O6" t="n">
-        <v>287.3009416492374</v>
+        <v>73.61520462047079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_5</t>
+          <t>model_1_30_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998964192231243</v>
+        <v>0.9361714247276571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8281516924479251</v>
+        <v>0.7445347337486885</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8196920742536364</v>
+        <v>0.6625488769171703</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999843604661559</v>
+        <v>0.9054608123282415</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004311577490236102</v>
+        <v>0.2656881485919234</v>
       </c>
       <c r="G7" t="n">
-        <v>1.149150423889422</v>
+        <v>1.708297411731909</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6449509955405092</v>
+        <v>1.207043100726942</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001065634235786505</v>
+        <v>0.2241006960602953</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0507805645811874</v>
+        <v>1.397020972354974</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02076433839600025</v>
+        <v>0.5154494626943784</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006629169720043</v>
+        <v>0.9130844932461715</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02109135596901397</v>
+        <v>0.5235672764713881</v>
       </c>
       <c r="N7" t="n">
-        <v>145.4980730556188</v>
+        <v>36.65086406336535</v>
       </c>
       <c r="O7" t="n">
-        <v>286.8332455988352</v>
+        <v>73.61544765159117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_9</t>
+          <t>model_1_30_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998801381323781</v>
+        <v>0.9360746091761819</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8280925314799362</v>
+        <v>0.7445144172407059</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8181788188526035</v>
+        <v>0.6611835892030815</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997448605589506</v>
+        <v>0.9071162529368795</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004989282239086681</v>
+        <v>0.2660911459096077</v>
       </c>
       <c r="G8" t="n">
-        <v>1.149546033554775</v>
+        <v>1.708433268314337</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6503638223664148</v>
+        <v>1.211926655716308</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001738449022789248</v>
+        <v>0.2201765519903215</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04823315218901562</v>
+        <v>1.400694837536971</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02233670127634491</v>
+        <v>0.5158402329303209</v>
       </c>
       <c r="L8" t="n">
-        <v>1.007671159527803</v>
+        <v>0.912952659303737</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02268848199293783</v>
+        <v>0.5239642009479198</v>
       </c>
       <c r="N8" t="n">
-        <v>145.2060966248422</v>
+        <v>36.64783275019465</v>
       </c>
       <c r="O8" t="n">
-        <v>286.5412691680586</v>
+        <v>73.61241633842047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_6</t>
+          <t>model_1_30_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998924987116263</v>
+        <v>0.9360623828974717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8280277269133356</v>
+        <v>0.7445110722629641</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8193295808530022</v>
+        <v>0.6610337734549617</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998143511551315</v>
+        <v>0.9072878743892312</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004474769827990786</v>
+        <v>0.2661420381211421</v>
       </c>
       <c r="G9" t="n">
-        <v>1.14997938199003</v>
+        <v>1.708455636195899</v>
       </c>
       <c r="H9" t="n">
-        <v>0.646247613416003</v>
+        <v>1.212462537960516</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001264959473204192</v>
+        <v>0.2197697314127593</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04914216329904027</v>
+        <v>1.401082176020473</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02115365176037174</v>
+        <v>0.5158895600040206</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006880082455915</v>
+        <v>0.912936010754004</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02148680062970373</v>
+        <v>0.5240143048737215</v>
       </c>
       <c r="N9" t="n">
-        <v>145.4237709133161</v>
+        <v>36.64745026963375</v>
       </c>
       <c r="O9" t="n">
-        <v>286.7589434565325</v>
+        <v>73.61203385785957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_7</t>
+          <t>model_1_30_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998910430870772</v>
+        <v>0.9361924792627473</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8280166998730746</v>
+        <v>0.7445098141065577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8189631418637777</v>
+        <v>0.6629151590066918</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999796254603789</v>
+        <v>0.9049854842365714</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004535360588455448</v>
+        <v>0.2656005085275214</v>
       </c>
       <c r="G10" t="n">
-        <v>1.150053119859031</v>
+        <v>1.708464049493582</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6475583444331057</v>
+        <v>1.20573293093098</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001388264329043197</v>
+        <v>0.2252274389361714</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04787359999791413</v>
+        <v>1.395978862995116</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02129638605128919</v>
+        <v>0.5153644424361478</v>
       </c>
       <c r="L10" t="n">
-        <v>1.006973242427058</v>
+        <v>0.9131131632514006</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02163178284302118</v>
+        <v>0.5234809172290794</v>
       </c>
       <c r="N10" t="n">
-        <v>145.3968715584629</v>
+        <v>36.65152389348988</v>
       </c>
       <c r="O10" t="n">
-        <v>286.7320441016793</v>
+        <v>73.6161074817157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_8</t>
+          <t>model_1_30_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998827757585945</v>
+        <v>0.9361987648240934</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8279735796160997</v>
+        <v>0.744430594263104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8183956974043423</v>
+        <v>0.6630332526877878</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999762986766067</v>
+        <v>0.9048293030993071</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004879490343662659</v>
+        <v>0.2655743447106138</v>
       </c>
       <c r="G11" t="n">
-        <v>1.150341465215972</v>
+        <v>1.708993792951531</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6495880603621862</v>
+        <v>1.205310516681165</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001614942100775023</v>
+        <v>0.2255976589733262</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04776236224586466</v>
+        <v>1.395639240451858</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02208956845133616</v>
+        <v>0.5153390580099803</v>
       </c>
       <c r="L11" t="n">
-        <v>1.007502351449951</v>
+        <v>0.9131217223136591</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02243745707297739</v>
+        <v>0.5234551330235749</v>
       </c>
       <c r="N11" t="n">
-        <v>145.2505991906783</v>
+        <v>36.65172091951074</v>
       </c>
       <c r="O11" t="n">
-        <v>286.5857717338948</v>
+        <v>73.61630450773656</v>
       </c>
     </row>
   </sheetData>
